--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3396.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3396.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.908875975326637</v>
+        <v>1.214638590812683</v>
       </c>
       <c r="B1">
-        <v>2.195361314346336</v>
+        <v>4.64321756362915</v>
       </c>
       <c r="C1">
-        <v>2.360622302581841</v>
+        <v>4.410257339477539</v>
       </c>
       <c r="D1">
-        <v>2.964527864108433</v>
+        <v>1.985043406486511</v>
       </c>
       <c r="E1">
-        <v>3.825362865064398</v>
+        <v>1.287562489509583</v>
       </c>
     </row>
   </sheetData>
